--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_9_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_9_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001924075510326695</v>
+        <v>0.0007314638132400741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001158005419944961</v>
+        <v>0.002059400479961557</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.139420784746417</v>
+        <v>5.665006736508652</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.277262799898807, 10.001578769594026]</t>
+          <t>[2.232916265965928, 9.097097207051377]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001988412128676176</v>
+        <v>0.00133932563570327</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001988412128676176</v>
+        <v>0.00133932563570327</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049254, -0.5031579825569237]</t>
+          <t>[-2.465474114528927, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006011111468244845</v>
+        <v>2.085172319210571e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006011111468244845</v>
+        <v>2.085172319210571e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>11.42533959553633</v>
+        <v>11.32773320727654</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.380459316390102, 13.470219874682556]</t>
+          <t>[9.301928832088334, 13.353537582464748]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.786946946947062</v>
+        <v>6.908108108108259</v>
       </c>
       <c r="X2" t="n">
-        <v>2.081281281281331</v>
+        <v>3.786666666666749</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.492612612612792</v>
+        <v>10.02954954954977</v>
       </c>
     </row>
     <row r="3">
@@ -658,47 +658,47 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005745059337038</v>
+        <v>3.432038754369593e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001158005419944961</v>
+        <v>0.0004763612275136466</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.580403769476273</v>
+        <v>6.292756536875356</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1712837609572073, 8.98952377799534]</t>
+          <t>[2.739442004605296, 9.846071069145415]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001438397566822625</v>
+        <v>0.0005782535037424097</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001988412128676176</v>
+        <v>0.001156507007484819</v>
       </c>
       <c r="O3" t="n">
-        <v>2.345974093671658</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.8050792624229635, 2.8868689249203516]</t>
+          <t>[1.9811845563178876, 3.113290017070966]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="R3" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>11.65791272723086</v>
+        <v>11.61354373175633</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.888905676587704, 13.426919777874012]</t>
+          <t>[9.738057169004623, 13.48903029450803]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.40614614614624</v>
+        <v>13.66972972972982</v>
       </c>
       <c r="X3" t="n">
-        <v>12.42702702702711</v>
+        <v>11.59855855855864</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.38526526526538</v>
+        <v>15.74090090090101</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_9_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_9_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007314638132400741</v>
+        <v>0.002095089717427889</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002059400479961557</v>
+        <v>0.009540410894242717</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.665006736508652</v>
+        <v>5.125539614897558</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.232916265965928, 9.097097207051377]</t>
+          <t>[1.3131701312398025, 8.937909098555314]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.00133932563570327</v>
+        <v>0.008680073821632162</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00133932563570327</v>
+        <v>0.008680073821632162</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.698158191129618</v>
+        <v>-1.195000208572694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.465474114528927, -0.9308422677303092]</t>
+          <t>[-1.9748950815359247, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.085172319210571e-05</v>
+        <v>0.002854441207077896</v>
       </c>
       <c r="R2" t="n">
-        <v>2.085172319210571e-05</v>
+        <v>0.002854441207077896</v>
       </c>
       <c r="S2" t="n">
-        <v>11.32773320727654</v>
+        <v>11.69890097052908</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.301928832088334, 13.353537582464748]</t>
+          <t>[9.679296759082344, 13.71850518197581]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.908108108108259</v>
+        <v>4.943043043043158</v>
       </c>
       <c r="X2" t="n">
-        <v>3.786666666666749</v>
+        <v>1.717057057057098</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.02954954954977</v>
+        <v>8.169029029029218</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.99000000000015</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.432038754369593e-05</v>
+        <v>0.0001985019012115119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004763612275136466</v>
+        <v>0.002576854595903517</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.292756536875356</v>
+        <v>5.754030925942088</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.739442004605296, 9.846071069145415]</t>
+          <t>[2.521497091059185, 8.98656476082499]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0005782535037424097</v>
+        <v>0.0005425291274927524</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001156507007484819</v>
+        <v>0.001085058254985505</v>
       </c>
       <c r="O3" t="n">
-        <v>2.547237286694427</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9811845563178876, 3.113290017070966]</t>
+          <t>[1.0126054398958093, 2.396289891927349]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.201840388238452e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.403680776476904e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>11.61354373175633</v>
+        <v>11.6099803118191</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.738057169004623, 13.48903029450803]</t>
+          <t>[9.718423173815243, 13.501537449822962]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.66972972972982</v>
+        <v>16.40368368368374</v>
       </c>
       <c r="X3" t="n">
-        <v>11.59855855855864</v>
+        <v>13.92510510510516</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.74090090090101</v>
+        <v>18.88226226226233</v>
       </c>
     </row>
   </sheetData>
